--- a/data/health/dirty/health.xlsx
+++ b/data/health/dirty/health.xlsx
@@ -562,10 +562,8 @@
           <t>Eiravati Sunder</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C3" t="n">
+        <v>28</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -622,10 +620,8 @@
           <t>Frado Palla</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C4" t="n">
+        <v>70</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +875,11 @@
           <t>Phusro</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dengue Fever, Lupus</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Rash, Joint pain, Fever</t>
@@ -890,11 +890,7 @@
           <t>Oral rehydration salts, Prednisone</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Advise on sun protection, Encourage hydration</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>ANA: Negative, Platelets: 82843 cells/mm3</t>
@@ -1084,8 +1080,10 @@
           <t>Isha Rajagopal</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>80</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1250,20 +1248,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A15" t="n">
+        <v>8741737360</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Warda Kanda</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C15" t="n">
+        <v>50</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1275,11 +1269,7 @@
           <t>H487</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Nadig Inc Hospital</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>Nellore</t>
@@ -1343,11 +1333,7 @@
           <t>Bhiwani</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Bronchitis</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>Cough, Fatigue</t>
@@ -1428,10 +1414,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A18" t="n">
+        <v>2429584727</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1554,8 +1538,10 @@
           <t>Urvashi Nori</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>76</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1877,11 +1863,7 @@
           <t>Shortness of breath, Fatigue</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Iron supplements</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>Prescribe iron supplements</t>
@@ -2018,8 +2000,10 @@
           <t>Chakradev Pall</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>85</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2142,7 +2126,11 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>H208</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Joshi, Bains and Sinha Hospital</t>
@@ -2380,11 +2368,7 @@
           <t>Gill, Bajwa and Prasad Hospital</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Jamnagar</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>Liver Cirrhosis</t>
@@ -2470,21 +2454,25 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="n">
+        <v>8877332554</v>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Aryan Bhat</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>55</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>H967</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Ramachandran Group Hospital</t>
@@ -2763,7 +2751,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>44</v>
+        <v>384.1921591171331</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2820,8 +2808,10 @@
           <t>Pratyush Venkataraman</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>71</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2928,8 +2918,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1668290670</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3017,7 +3009,11 @@
           <t>Durgapur</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Depression</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>Trouble sleeping, Fatigue</t>
@@ -3164,8 +3160,10 @@
           <t>Eshana Chander</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>39</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3397,7 +3395,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>301.3140002902002</v>
+        <v>45</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3563,15 +3561,17 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1821458485</v>
+        <v>33888551810.94321</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Nitara Bahl</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>55</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3628,8 +3628,10 @@
           <t>Yochana Hayer</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>68</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3686,7 +3688,9 @@
           <t>Ekani Bansal</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>21</v>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>Female</t>
@@ -3803,11 +3807,7 @@
       <c r="C59" t="n">
         <v>57</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>H706</t>
@@ -4007,7 +4007,11 @@
           <t>Pale skin, Chest pain, Nosebleeds, Fatigue</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Amlodipine, Iron supplements</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>Monitor hemoglobin levels, Encourage stress reduction</t>
@@ -4028,8 +4032,10 @@
           <t>Akshay Morar</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>88</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4078,10 +4084,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A64" t="n">
+        <v>5058711785</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4138,8 +4142,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>8899914246</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4196,10 +4202,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A66" t="n">
+        <v>7543102727</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4209,7 +4213,11 @@
       <c r="C66" t="n">
         <v>40</v>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>H253</t>
@@ -4310,20 +4318,16 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A68" t="n">
+        <v>9966905982</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Yashica Kamdar</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C68" t="n">
+        <v>75</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4592,11 +4596,7 @@
           <t>Furosemide, Azithromycin, Methotrexate</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Monitor fluid intake, Monitor oxygen levels, Recommend joint exercises</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>Creatinine: 3.9 mg/dL, ESR: 50 mm/hr, CRP: 116 mg/L</t>
@@ -4836,10 +4836,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A77" t="n">
+        <v>294959797</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5116,7 +5114,11 @@
           <t>Isoniazid, Rizatriptan</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Prescribe preventive medications, Educate on infection control</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>TB Culture: Negative, CT Brain: Normal</t>
@@ -5407,7 +5409,11 @@
           <t>Advise rest and hydration, Refer to a mental health counselor, Monitor oxygen levels</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>CRP: 42 mg/L, SpO2: 90%, PHQ-9: 6</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5418,8 +5424,10 @@
           <t>Neelima Sathe</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>84</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5620,7 +5628,11 @@
           <t>Pneumonia</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Shortness of breath, Cough</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>Ceftriaxone</t>
@@ -5674,11 +5686,7 @@
           <t>Pneumonia</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Shortness of breath, Chest pain</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
           <t>Amoxicillin</t>
@@ -5722,7 +5730,11 @@
           <t>Kaul-Aurora Hospital</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Jorhat</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>Dengue Fever, COVID-19</t>
@@ -5808,7 +5820,9 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="n">
+        <v>8384617968</v>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Kai Chanda</t>
@@ -5864,8 +5878,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>8274242730</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5922,10 +5938,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A96" t="n">
+        <v>9412680077</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5982,8 +5996,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>7491518613</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6023,7 +6039,11 @@
           <t>Confusion, Fatigue, Chest discomfort, Weight loss, Weakness</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Doxycycline, Spironolactone, Aspirin</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>Prescribe antibiotics, Encourage physical therapy, Limit alcohol consumption</t>
@@ -6039,7 +6059,11 @@
       <c r="A98" t="n">
         <v>5576083693</v>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Wishi Ganguly</t>
+        </is>
+      </c>
       <c r="C98" t="n">
         <v>26</v>
       </c>
@@ -6272,8 +6296,10 @@
           <t>Abhiram Ramesh</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>31</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6325,7 +6351,11 @@
       <c r="A103" t="n">
         <v>1002579400</v>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Yoshita Doshi</t>
+        </is>
+      </c>
       <c r="C103" t="n">
         <v>22</v>
       </c>
@@ -6376,8 +6406,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>9563144393</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6508,16 +6540,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>H441</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sangha LLC Hospital</t>
-        </is>
-      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>Ghaziabad</t>
@@ -6848,10 +6872,8 @@
           <t>Lakshmi Muni</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C112" t="n">
+        <v>73</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6908,8 +6930,10 @@
           <t>Atharv Om</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>29</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6936,7 +6960,11 @@
           <t>COVID-19, Alzheimer's, Arthritis</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Joint pain, Swelling, Cough, Difficulty speaking, Memory loss, Fever</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>Memantine, Naproxen, Remdesivir</t>
@@ -7096,7 +7124,11 @@
           <t>Mutti, Merchant and Patla Hospital</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Dehradun</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
           <t>Depression</t>
@@ -7414,19 +7446,15 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A122" t="n">
+        <v>4248196505</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Nikita Kuruvilla</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>81</v>
-      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
           <t>Male</t>
@@ -7467,11 +7495,7 @@
           <t>Monitor oxygen levels</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>CRP: 124 mg/L</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7540,7 +7564,9 @@
           <t>Yachana Tata</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>44</v>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>Male</t>
@@ -7667,11 +7693,7 @@
           <t>H458</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Pandya-Nayar Hospital</t>
-        </is>
-      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
           <t>Jalna</t>
@@ -7856,11 +7878,7 @@
           <t>Stroke</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Confusion, Weakness</t>
-        </is>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
           <t>Clopidogrel</t>
@@ -7878,10 +7896,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A130" t="n">
+        <v>5558508871</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -7901,11 +7917,7 @@
           <t>H693</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Dube, Wali and Dasgupta Hospital</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
           <t>Raiganj</t>
@@ -7946,10 +7958,8 @@
           <t>Dev Sura</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C131" t="n">
+        <v>59</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7981,11 +7991,7 @@
           <t>Fatigue, Nausea</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Tenofovir</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>Monitor liver function tests</t>
@@ -8155,11 +8161,7 @@
           <t>Nausea, Pulsing pain</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Rizatriptan</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>Avoid triggers like strong lights</t>
@@ -8346,8 +8348,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>4180861973</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -8412,8 +8416,10 @@
           <t>Yochana Tella</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>21</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8483,7 +8489,11 @@
           <t>H699</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Johal, Arora and Sarkar Hospital</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr">
         <is>
           <t>Thrissur</t>
@@ -8525,7 +8535,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>268.2360136608345</v>
+        <v>42</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8600,7 +8610,11 @@
           <t>Mody-Som Hospital</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Dehri</t>
+        </is>
+      </c>
       <c r="H142" t="inlineStr">
         <is>
           <t>Migraine, Coronary Artery Disease, Hepatitis</t>
@@ -8636,10 +8650,8 @@
           <t>Indali Mani</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C143" t="n">
+        <v>80</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8729,7 +8741,11 @@
           <t>Abdominal pain, Jaundice</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Spironolactone</t>
+        </is>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>Limit alcohol consumption</t>
@@ -8742,9 +8758,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>2598905454</v>
-      </c>
+      <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
           <t>Udarsh Chawla</t>
@@ -8851,11 +8865,7 @@
           <t>Encourage stress reduction, Advise low-sodium diet</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>BP: 145/98, BNP: 440 pg/mL</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8942,7 +8952,11 @@
           <t>Bose-Bora Hospital</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Dewas</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr">
         <is>
           <t>Parkinson's Disease, Anemia</t>
@@ -9028,18 +9042,18 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>7075297157</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Adweta Tailor</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C150" t="n">
+        <v>18</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9096,60 +9110,60 @@
           <t>Nidhi Narain</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" t="n">
+        <v>49</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>H884</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Mani Group Hospital</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Raiganj</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Gout</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Limited mobility, Swelling</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Colchicine</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Advise on diet changes</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Uric Acid: 5 mg/dL</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>error_value</t>
         </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>H884</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Mani Group Hospital</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Raiganj</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Gout</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Limited mobility, Swelling</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Colchicine</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Advise on diet changes</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>Uric Acid: 5 mg/dL</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>4362186537</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -9272,8 +9286,10 @@
           <t>Oni Saran</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>58</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9348,7 +9364,11 @@
           <t>Sama and Sons Hospital</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Anantapuram</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
           <t>Alzheimer's, Type 2 Diabetes</t>
@@ -9434,16 +9454,16 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>6618813893</v>
-      </c>
+      <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
           <t>Frederick Sachar</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>87</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9492,8 +9512,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>5965649631</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -9732,9 +9754,7 @@
           <t>Lavanya Mittal</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>46</v>
-      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
           <t>Male</t>
@@ -9782,8 +9802,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>6598019850</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -9977,7 +9999,11 @@
           <t>H011</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sami, Patil and Nayak Hospital</t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr">
         <is>
           <t>Gangtok</t>
@@ -10134,10 +10160,8 @@
           <t>Warinder Wable</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C169" t="n">
+        <v>70</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10310,10 +10334,8 @@
           <t>Peter Badal</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C172" t="n">
+        <v>61</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10365,11 +10387,7 @@
       <c r="A173" t="n">
         <v>7756382096</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Janaki Nayar</t>
-        </is>
-      </c>
+      <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
         <v>54</v>
       </c>
@@ -10428,10 +10446,8 @@
           <t>Nitara Ravi</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C174" t="n">
+        <v>37</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10458,7 +10474,11 @@
           <t>Type 2 Diabetes</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Frequent urination, Blurred vision</t>
+        </is>
+      </c>
       <c r="J174" t="inlineStr">
         <is>
           <t>Glipizide</t>
@@ -10476,7 +10496,9 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr"/>
+      <c r="A175" t="n">
+        <v>9543200337</v>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Nimrat Malhotra</t>
@@ -10505,11 +10527,7 @@
           <t>Ujjain</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Heart Failure</t>
-        </is>
-      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
           <t>Chest discomfort, Swelling in legs</t>
@@ -10651,11 +10669,7 @@
       <c r="A178" t="n">
         <v>7713575327</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Yashica Dua</t>
-        </is>
-      </c>
+      <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
         <v>84</v>
       </c>
@@ -10706,10 +10720,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A179" t="n">
+        <v>2837244567</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -11122,9 +11134,7 @@
           <t>Jeremiah Balan</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>34</v>
-      </c>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
           <t>Female</t>
@@ -11135,7 +11145,11 @@
           <t>H339</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Balakrishnan Inc Hospital</t>
+        </is>
+      </c>
       <c r="G186" t="inlineStr">
         <is>
           <t>Ramagundam</t>
@@ -11284,8 +11298,10 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>3474857230</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -11353,7 +11369,11 @@
       <c r="C190" t="n">
         <v>74</v>
       </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>H023</t>
@@ -11523,7 +11543,11 @@
       <c r="C193" t="n">
         <v>90</v>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>H026</t>
@@ -11566,10 +11590,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A194" t="n">
+        <v>3683613382</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -11662,7 +11684,11 @@
           <t>Depression, Hepatitis, Heart Failure</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Jaundice, Swelling in legs, Trouble sleeping, Fatigue, Chest discomfort, Loss of interest</t>
+        </is>
+      </c>
       <c r="J195" t="inlineStr">
         <is>
           <t>Escitalopram, Carvedilol, Tenofovir</t>
@@ -11804,10 +11830,8 @@
           <t>Nidhi Lall</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C198" t="n">
+        <v>53</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12039,7 +12063,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>326.2383165319254</v>
+        <v>55</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12071,7 +12095,11 @@
           <t>Confusion, Trouble sleeping, Seizures, Loss of interest</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Escitalopram, Carbamazepine</t>
+        </is>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>Encourage social support, Ensure regular medication adherence</t>
@@ -12284,11 +12312,7 @@
           <t>Raval-Devan Hospital</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Bikaner</t>
-        </is>
-      </c>
+      <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
           <t>Hepatitis, Fibromyalgia</t>
@@ -12432,8 +12456,10 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>9172851775</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -12526,7 +12552,11 @@
           <t>Epilepsy, Alzheimer's</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Uncontrolled jerking, Disorientation, Mood swings, Staring spells</t>
+        </is>
+      </c>
       <c r="J210" t="inlineStr">
         <is>
           <t>Carbamazepine, Donepezil</t>
@@ -12603,7 +12633,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>36781802515.92063</v>
+        <v>114446900</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -12729,7 +12759,11 @@
       <c r="C214" t="n">
         <v>41</v>
       </c>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
           <t>H104</t>
@@ -12946,10 +12980,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A218" t="n">
+        <v>128571559</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -13586,18 +13618,18 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>1852613808</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Janaki Dua</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C229" t="n">
+        <v>33</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13704,10 +13736,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A231" t="n">
+        <v>4091831331</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -13717,11 +13747,7 @@
       <c r="C231" t="n">
         <v>58</v>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
           <t>H668</t>
@@ -13737,11 +13763,7 @@
           <t>Muzaffarpur</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Hepatitis, Type 2 Diabetes, Liver Cirrhosis</t>
-        </is>
-      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
           <t>Thirst, Jaundice, Abdominal pain, Fatigue, Frequent urination</t>
@@ -13772,11 +13794,7 @@
           <t>Sudiksha Anand</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
-      </c>
+      <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
           <t>Female</t>
@@ -13882,7 +13900,9 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr"/>
+      <c r="A234" t="n">
+        <v>45385031747.98219</v>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Amol Deol</t>
@@ -13938,8 +13958,10 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>147356787</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -14090,11 +14112,7 @@
           <t>Migraine, Type 2 Diabetes, Coronary Artery Disease</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>Visual disturbance, Palpitations, Fatigue, Chest pain, Blurred vision, Sensitivity to light</t>
-        </is>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
           <t>Metformin, Atorvastatin, Rizatriptan</t>
@@ -14170,8 +14188,10 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>7315141313</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -14294,8 +14314,10 @@
           <t>Ojas Singhal</t>
         </is>
       </c>
-      <c r="C241" t="n">
-        <v>47</v>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14344,8 +14366,10 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>8567076744</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -14402,8 +14426,10 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>1799483210</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -14501,7 +14527,11 @@
           <t>Limited mobility, Breathlessness, Swelling, Palpitations, Fatigue, Weakness</t>
         </is>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Folic acid, Colchicine, Aspirin</t>
+        </is>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>Monitor hemoglobin levels, Encourage a heart-healthy diet, Prescribe anti-inflammatory drugs</t>
@@ -14525,7 +14555,11 @@
       <c r="C245" t="n">
         <v>75</v>
       </c>
-      <c r="D245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
           <t>H439</t>
@@ -14571,11 +14605,7 @@
       <c r="A246" t="n">
         <v>8956628784</v>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Madhavi Dave</t>
-        </is>
-      </c>
+      <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
         <v>75</v>
       </c>
@@ -14692,10 +14722,8 @@
           <t>Indrajit Dora</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C248" t="n">
+        <v>89</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14848,11 +14876,7 @@
           <t>Escitalopram, Hydroxychloroquine, Clopidogrel</t>
         </is>
       </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>Prescribe beta blockers, Refer to a mental health counselor, Advise on sun protection</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>ANA: Positive, General blood work: Normal, PHQ-9: 25</t>
@@ -14918,18 +14942,18 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
-        <v>4576275567</v>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Libni Palla</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C252" t="n">
+        <v>59</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15009,7 +15033,11 @@
           <t>Noida</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
       <c r="I253" t="inlineStr">
         <is>
           <t>Shortness of breath, Wheezing</t>
@@ -15040,10 +15068,8 @@
           <t>Keya Bassi</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C254" t="n">
+        <v>90</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15133,11 +15159,7 @@
           <t>Shortness of breath, Chest pain</t>
         </is>
       </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>Azithromycin</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>Prescribe antibiotics</t>
@@ -15208,10 +15230,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A257" t="n">
+        <v>5033520724</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -15268,8 +15288,10 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
-        <v>664684320</v>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -15817,7 +15839,11 @@
           <t>Dibrugarh</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Liver Cirrhosis, Stroke</t>
+        </is>
+      </c>
       <c r="I267" t="inlineStr">
         <is>
           <t>Confusion, Trouble speaking, Abdominal pain, Jaundice</t>
@@ -15871,7 +15897,11 @@
           <t>Suryapet</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Lupus, Leukemia</t>
+        </is>
+      </c>
       <c r="I268" t="inlineStr">
         <is>
           <t>Rash, Joint pain, Frequent infections, Fever</t>
@@ -15961,7 +15991,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>278.833256457903</v>
+        <v>82</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16056,7 +16086,11 @@
           <t>Pramipexole, Aspirin, Interferon</t>
         </is>
       </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Prescribe antiviral medications, Encourage physical therapy, Follow general medical advice</t>
+        </is>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>NIHSS: 1, General blood work: Normal, UPDRS: 63</t>
@@ -16067,11 +16101,13 @@
       <c r="A272" t="n">
         <v>6584467679</v>
       </c>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Rudra Deshpande</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>18</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16088,7 +16124,11 @@
           <t>Chakraborty-Nazareth Hospital</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr"/>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Bhalswa Jahangir Pur</t>
+        </is>
+      </c>
       <c r="H272" t="inlineStr">
         <is>
           <t>Stroke, Coronary Artery Disease, Heart Failure</t>
@@ -16290,8 +16330,10 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
-        <v>1605620072</v>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -16522,8 +16564,10 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
-        <v>2773476993</v>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -16646,10 +16690,8 @@
           <t>Tanay Rajagopal</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C282" t="n">
+        <v>61</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16691,7 +16733,11 @@
           <t>Monitor fluid intake, Encourage stress reduction, Seek medical help if symptoms worsen</t>
         </is>
       </c>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>SpO2: 91%, Creatinine: 3.1 mg/dL, BP: 140/98</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16760,7 +16806,9 @@
           <t>Lakshit Dugar</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr"/>
+      <c r="C284" t="n">
+        <v>47</v>
+      </c>
       <c r="D284" t="inlineStr">
         <is>
           <t>Male</t>
@@ -16791,7 +16839,11 @@
           <t>Redness, Swelling</t>
         </is>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>Allopurinol</t>
+        </is>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>Advise on diet changes</t>
@@ -16931,7 +16983,11 @@
       <c r="C287" t="n">
         <v>77</v>
       </c>
-      <c r="D287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="E287" t="inlineStr">
         <is>
           <t>H987</t>
@@ -16982,10 +17038,8 @@
           <t>Yashodhara Mishra</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C288" t="n">
+        <v>19</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -16997,7 +17051,11 @@
           <t>H619</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr"/>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Saraf, Buch and Deshpande Hospital</t>
+        </is>
+      </c>
       <c r="G288" t="inlineStr">
         <is>
           <t>Panvel</t>
@@ -17088,10 +17146,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A290" t="n">
+        <v>2678155483</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -17156,8 +17212,10 @@
           <t>Tarak Dey</t>
         </is>
       </c>
-      <c r="C291" t="n">
-        <v>77</v>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17217,11 +17275,7 @@
       <c r="C292" t="n">
         <v>21</v>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
           <t>H571</t>
@@ -17264,10 +17318,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A293" t="n">
+        <v>7387650868</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -17390,10 +17442,8 @@
           <t>Amara Kadakia</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C295" t="n">
+        <v>69</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17443,7 +17493,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>43499802910.55884</v>
+        <v>4170551481</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -17732,10 +17782,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A301" t="n">
+        <v>3848367472</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -17858,8 +17906,10 @@
           <t>Rachit Chatterjee</t>
         </is>
       </c>
-      <c r="C303" t="n">
-        <v>70</v>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17966,10 +18016,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A305" t="n">
+        <v>7832630133</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -18095,7 +18143,11 @@
       <c r="C307" t="n">
         <v>25</v>
       </c>
-      <c r="D307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="E307" t="inlineStr">
         <is>
           <t>H039</t>
@@ -18237,11 +18289,7 @@
           <t>Joint pain, Bone fractures, Pale skin, Back pain, Fatigue, Rash</t>
         </is>
       </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>Folic acid, Vitamin D, Prednisone</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>Monitor organ function, Prescribe calcium and vitamin D supplements, Recommend iron-rich foods</t>
@@ -18262,8 +18310,10 @@
           <t>Aarna Wason</t>
         </is>
       </c>
-      <c r="C310" t="n">
-        <v>77</v>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18547,11 +18597,7 @@
       <c r="A315" t="n">
         <v>3957951252</v>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Janaki Contractor</t>
-        </is>
-      </c>
+      <c r="B315" t="inlineStr"/>
       <c r="C315" t="n">
         <v>31</v>
       </c>
@@ -18668,8 +18714,10 @@
           <t>Abdul Naidu</t>
         </is>
       </c>
-      <c r="C317" t="n">
-        <v>64</v>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18834,18 +18882,18 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
+      <c r="A320" t="n">
+        <v>4063519430</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Zaitra Purohit</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
         <is>
           <t>error_value</t>
         </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Zaitra Purohit</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>48</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19109,7 +19157,11 @@
           <t>Bone fractures, Stooped posture</t>
         </is>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Alendronate</t>
+        </is>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>Encourage weight-bearing exercises</t>
@@ -19264,11 +19316,7 @@
           <t>Parikh-Karnik Hospital</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>Kavali</t>
-        </is>
-      </c>
+      <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr">
         <is>
           <t>Migraine, Anemia</t>
@@ -19385,7 +19433,11 @@
           <t>Tezpur</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Chronic Kidney Disease</t>
+        </is>
+      </c>
       <c r="I329" t="inlineStr">
         <is>
           <t>Loss of appetite, Fatigue</t>
@@ -19640,10 +19692,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A334" t="n">
+        <v>8195651811</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -19847,7 +19897,11 @@
           <t>Madanapalle</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr"/>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
       <c r="I337" t="inlineStr">
         <is>
           <t>Shortness of breath, Cough</t>
@@ -20022,11 +20076,7 @@
           <t>Epilepsy, Migraine</t>
         </is>
       </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>Confusion, Pulsing pain, Nausea, Staring spells</t>
-        </is>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
           <t>Carbamazepine, Sumatriptan</t>
@@ -20128,11 +20178,7 @@
           <t>Iyengar, Keer and Raghavan Hospital</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>Kochi</t>
-        </is>
-      </c>
+      <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
         <is>
           <t>Hypertension, Hepatitis, Gout</t>
@@ -20168,8 +20214,10 @@
           <t>Joshua Gola</t>
         </is>
       </c>
-      <c r="C343" t="n">
-        <v>77</v>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20451,7 +20499,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>45401567520.13091</v>
+        <v>38332603874.53678</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -20633,7 +20681,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>313.5410136693993</v>
+        <v>26</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20814,7 +20862,11 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>H377</t>
+        </is>
+      </c>
       <c r="F354" t="inlineStr">
         <is>
           <t>Nair and Sons Hospital</t>
@@ -20861,7 +20913,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>368.5243218122093</v>
+        <v>400.4611739543351</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20888,7 +20940,11 @@
           <t>Parkinson's Disease, Asthma, Liver Cirrhosis</t>
         </is>
       </c>
-      <c r="I355" t="inlineStr"/>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Wheezing, Chest tightness, Fatigue, Weight loss, Muscle stiffness, Impaired balance</t>
+        </is>
+      </c>
       <c r="J355" t="inlineStr">
         <is>
           <t>Lactulose, Albuterol, Ropinirole</t>
@@ -21083,11 +21139,7 @@
       <c r="A359" t="n">
         <v>7547647363</v>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>Rachana Manda</t>
-        </is>
-      </c>
+      <c r="B359" t="inlineStr"/>
       <c r="C359" t="n">
         <v>21</v>
       </c>
@@ -21204,8 +21256,10 @@
           <t>Urishilla Lala</t>
         </is>
       </c>
-      <c r="C361" t="n">
-        <v>38</v>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21323,11 +21377,7 @@
       <c r="C363" t="n">
         <v>80</v>
       </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr">
         <is>
           <t>H229</t>
@@ -21348,11 +21398,7 @@
           <t>Epilepsy, Stroke</t>
         </is>
       </c>
-      <c r="I363" t="inlineStr">
-        <is>
-          <t>Confusion, Trouble speaking, Seizures</t>
-        </is>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr">
         <is>
           <t>Carbamazepine, Tissue plasminogen activator</t>
@@ -21436,10 +21482,8 @@
           <t>Ishwar Konda</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C365" t="n">
+        <v>72</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21612,8 +21656,10 @@
           <t>Manan Kala</t>
         </is>
       </c>
-      <c r="C368" t="n">
-        <v>39</v>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21721,15 +21767,17 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>35288766899.9209</v>
+        <v>39973002544.73257</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Anika Desai</t>
         </is>
       </c>
-      <c r="C370" t="n">
-        <v>56</v>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21778,10 +21826,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A371" t="n">
+        <v>7428480298</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -21846,8 +21892,10 @@
           <t>Jeremiah Kunda</t>
         </is>
       </c>
-      <c r="C372" t="n">
-        <v>64</v>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22024,7 +22072,11 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>H735</t>
+        </is>
+      </c>
       <c r="F375" t="inlineStr">
         <is>
           <t>Kalla-Kashyap Hospital</t>
@@ -22120,8 +22172,10 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
-        <v>9298646423</v>
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -22178,8 +22232,10 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n">
-        <v>242047871</v>
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -22204,7 +22260,11 @@
           <t>Trivedi, Chakraborty and Dave Hospital</t>
         </is>
       </c>
-      <c r="G378" t="inlineStr"/>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
       <c r="H378" t="inlineStr">
         <is>
           <t>Stroke</t>
@@ -22263,7 +22323,11 @@
           <t>Kumbakonam</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr"/>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Depression</t>
+        </is>
+      </c>
       <c r="I379" t="inlineStr">
         <is>
           <t>Fatigue, Loss of interest</t>
@@ -22274,12 +22338,12 @@
           <t>Escitalopram</t>
         </is>
       </c>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>PHQ-9: 0</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>Refer to a mental health counselor</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -22348,10 +22412,8 @@
           <t>Ayush Memon</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C381" t="n">
+        <v>73</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22524,7 +22586,9 @@
           <t>Jonathan Mandal</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr"/>
+      <c r="C384" t="n">
+        <v>44</v>
+      </c>
       <c r="D384" t="inlineStr">
         <is>
           <t>Male</t>
@@ -23334,10 +23398,8 @@
           <t>Hemang Walla</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C398" t="n">
+        <v>64</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23460,7 +23522,11 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E400" t="inlineStr"/>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>H024</t>
+        </is>
+      </c>
       <c r="F400" t="inlineStr">
         <is>
           <t>Baria, Sidhu and Karpe Hospital</t>
@@ -23622,10 +23688,8 @@
           <t>Qadim Shah</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C403" t="n">
+        <v>25</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23811,7 +23875,11 @@
           <t>H022</t>
         </is>
       </c>
-      <c r="F406" t="inlineStr"/>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Char Ltd Hospital</t>
+        </is>
+      </c>
       <c r="G406" t="inlineStr">
         <is>
           <t>Bijapur</t>
@@ -23910,10 +23978,8 @@
           <t>Chakradhar Bains</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C408" t="n">
+        <v>45</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24136,10 +24202,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A412" t="n">
+        <v>4673320512</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -24262,8 +24326,10 @@
           <t>Dalaja Borah</t>
         </is>
       </c>
-      <c r="C414" t="n">
-        <v>67</v>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24370,8 +24436,10 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="n">
-        <v>6144686304</v>
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -24718,8 +24786,10 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="n">
-        <v>5201428994</v>
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -24784,10 +24854,8 @@
           <t>Tristan Kibe</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C423" t="n">
+        <v>56</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24836,10 +24904,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A424" t="n">
+        <v>9889321348</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -24985,11 +25051,7 @@
           <t>Thrissur</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>Epilepsy, Hepatitis</t>
-        </is>
-      </c>
+      <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
           <t>Abdominal pain, Fatigue, Seizures, Staring spells</t>
@@ -25043,11 +25105,7 @@
           <t>Narasaraopet</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>Parkinson's Disease, Depression</t>
-        </is>
-      </c>
+      <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
           <t>Muscle stiffness, Trouble sleeping, Impaired balance, Sadness</t>
@@ -25070,10 +25128,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A428" t="n">
+        <v>610173385</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -25219,7 +25275,11 @@
           <t>Jaunpur</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr"/>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Anemia</t>
+        </is>
+      </c>
       <c r="I430" t="inlineStr">
         <is>
           <t>Pale skin, Fatigue</t>
@@ -25300,10 +25360,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A432" t="n">
+        <v>2738408280</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -25507,11 +25565,7 @@
           <t>Bettiah</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>Hepatitis</t>
-        </is>
-      </c>
+      <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
           <t>Jaundice, Nausea</t>
@@ -25600,8 +25654,10 @@
           <t>Timothy Gaba</t>
         </is>
       </c>
-      <c r="C437" t="n">
-        <v>75</v>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25651,7 +25707,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>33888551810.94321</v>
+        <v>336084497</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -25724,11 +25780,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>H642</t>
-        </is>
-      </c>
+      <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr">
         <is>
           <t>Bail PLC Hospital</t>
@@ -25998,8 +26050,10 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="n">
-        <v>7979526721</v>
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -26064,8 +26118,10 @@
           <t>Oeshi Grover</t>
         </is>
       </c>
-      <c r="C445" t="n">
-        <v>73</v>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26122,8 +26178,10 @@
           <t>Dipta Rana</t>
         </is>
       </c>
-      <c r="C446" t="n">
-        <v>42</v>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26571,11 +26629,7 @@
           <t>Monitor hemoglobin levels, Recommend gentle exercises, Advise on sun protection</t>
         </is>
       </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Hemoglobin: 12 g/dL, Tender Points: 17, ANA: Negative</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -26725,7 +26779,11 @@
           <t>Secunderabad</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr"/>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Parkinson's Disease</t>
+        </is>
+      </c>
       <c r="I456" t="inlineStr">
         <is>
           <t>Muscle stiffness, Impaired balance</t>
@@ -26759,7 +26817,11 @@
       <c r="C457" t="n">
         <v>86</v>
       </c>
-      <c r="D457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="E457" t="inlineStr">
         <is>
           <t>H787</t>
@@ -26918,8 +26980,10 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="n">
-        <v>9391462159</v>
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -27171,11 +27235,7 @@
           <t>H034</t>
         </is>
       </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>Bandi, Gola and Dixit Hospital</t>
-        </is>
-      </c>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
           <t>Tiruvottiyur</t>
@@ -27208,18 +27268,18 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="n">
-        <v>125817988</v>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Sarthak Pillai</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C465" t="n">
+        <v>49</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27392,8 +27452,10 @@
           <t>Yasti Walia</t>
         </is>
       </c>
-      <c r="C468" t="n">
-        <v>73</v>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27790,10 +27852,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A475" t="n">
+        <v>9011373269</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -27823,7 +27883,11 @@
           <t>Jaipur</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr"/>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
       <c r="I475" t="inlineStr">
         <is>
           <t>Shortness of breath, Cough</t>
@@ -28172,7 +28236,11 @@
           <t>Asthma, Dengue Fever</t>
         </is>
       </c>
-      <c r="I481" t="inlineStr"/>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>Fever, Wheezing, Muscle pain, Coughing</t>
+        </is>
+      </c>
       <c r="J481" t="inlineStr">
         <is>
           <t>Budesonide, Ibuprofen</t>
@@ -28190,8 +28258,10 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="n">
-        <v>9130508030</v>
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -28828,19 +28898,19 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
+      <c r="A493" t="n">
+        <v>1305654342</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Krisha Varkey</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
         <is>
           <t>error_value</t>
         </is>
       </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>Krisha Varkey</t>
-        </is>
-      </c>
-      <c r="C493" t="n">
-        <v>85</v>
-      </c>
       <c r="D493" t="inlineStr">
         <is>
           <t>Male</t>
@@ -28876,7 +28946,11 @@
           <t>Imatinib</t>
         </is>
       </c>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>Monitor blood counts</t>
+        </is>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>WBC: 18196 cells/mm3</t>
@@ -28884,9 +28958,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
-        <v>2359068706</v>
-      </c>
+      <c r="A494" t="inlineStr"/>
       <c r="B494" t="inlineStr">
         <is>
           <t>Jagat Chana</t>
@@ -28951,7 +29023,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>30</v>
+        <v>268.2360136608345</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29011,11 +29083,7 @@
       <c r="C496" t="n">
         <v>58</v>
       </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
           <t>H022</t>
@@ -29058,7 +29126,9 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr"/>
+      <c r="A497" t="n">
+        <v>1564988138</v>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Charvi Bose</t>
@@ -29238,9 +29308,7 @@
           <t>Dominic Tella</t>
         </is>
       </c>
-      <c r="C500" t="n">
-        <v>70</v>
-      </c>
+      <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
           <t>Female</t>
@@ -29289,7 +29357,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>49467994359.26299</v>
+        <v>7108773388</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -29412,10 +29480,8 @@
           <t>Patrick Sarin</t>
         </is>
       </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C503" t="n">
+        <v>42</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29432,7 +29498,11 @@
           <t>Kaul-Aurora Hospital</t>
         </is>
       </c>
-      <c r="G503" t="inlineStr"/>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>Jorhat</t>
+        </is>
+      </c>
       <c r="H503" t="inlineStr">
         <is>
           <t>Stroke, Dengue Fever</t>
@@ -29518,10 +29588,8 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A505" t="n">
+        <v>2786277541</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -29579,7 +29647,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>1871117434</v>
+        <v>47350723012.76157</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -29667,11 +29735,7 @@
           <t>Aurangabad</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>Liver Cirrhosis, Arthritis</t>
-        </is>
-      </c>
+      <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
           <t>Joint pain, Abdominal pain, Fatigue, Swelling</t>
@@ -29760,8 +29824,10 @@
           <t>Qushi Sahni</t>
         </is>
       </c>
-      <c r="C509" t="n">
-        <v>22</v>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -29992,8 +30058,10 @@
           <t>Abhiram Tara</t>
         </is>
       </c>
-      <c r="C513" t="n">
-        <v>81</v>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30050,10 +30118,8 @@
           <t>Vihaan Wagle</t>
         </is>
       </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C514" t="n">
+        <v>326.3798705098922</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30110,8 +30176,10 @@
           <t>Nicholas Gaba</t>
         </is>
       </c>
-      <c r="C515" t="n">
-        <v>31</v>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30509,7 +30577,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>39971852937.70867</v>
+        <v>3177760402</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -30524,7 +30592,11 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E522" t="inlineStr"/>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>H234</t>
+        </is>
+      </c>
       <c r="F522" t="inlineStr">
         <is>
           <t>Boase-Dhawan Hospital</t>
@@ -30562,8 +30634,10 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="n">
-        <v>9310542911</v>
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -30736,18 +30810,18 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr">
+      <c r="A526" t="n">
+        <v>5612730826</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Frado Vig</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
         <is>
           <t>error_value</t>
         </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Frado Vig</t>
-        </is>
-      </c>
-      <c r="C526" t="n">
-        <v>63</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -30978,10 +31052,8 @@
           <t>Onveer Agrawal</t>
         </is>
       </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C530" t="n">
+        <v>76</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31038,8 +31110,10 @@
           <t>Timothy Sant</t>
         </is>
       </c>
-      <c r="C531" t="n">
-        <v>42</v>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31088,8 +31162,10 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="n">
-        <v>6056645470</v>
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -31154,8 +31230,10 @@
           <t>Garima Yadav</t>
         </is>
       </c>
-      <c r="C533" t="n">
-        <v>56</v>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31386,10 +31464,8 @@
           <t>Daksha Raj</t>
         </is>
       </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C537" t="n">
+        <v>60</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31441,11 +31517,7 @@
       <c r="A538" t="n">
         <v>7290778290</v>
       </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>Krishna Prashad</t>
-        </is>
-      </c>
+      <c r="B538" t="inlineStr"/>
       <c r="C538" t="n">
         <v>30</v>
       </c>
@@ -31728,8 +31800,10 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="n">
-        <v>6881203889</v>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -31794,10 +31868,8 @@
           <t>Shaurya Sampath</t>
         </is>
       </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C544" t="n">
+        <v>22</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -31855,7 +31927,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>339.6927136066666</v>
+        <v>74</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -31877,11 +31949,7 @@
           <t>Hajipur</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>Stroke, Type 2 Diabetes, Epilepsy</t>
-        </is>
-      </c>
+      <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
           <t>Confusion, Numbness, Seizures, Blurred vision, Weakness, Thirst</t>
@@ -31904,8 +31972,10 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="n">
-        <v>9188962075</v>
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -31920,7 +31990,11 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E546" t="inlineStr"/>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>H881</t>
+        </is>
+      </c>
       <c r="F546" t="inlineStr">
         <is>
           <t>Madan, Kade and Bhatti Hospital</t>
@@ -32178,7 +32252,11 @@
           <t>Ribavirin</t>
         </is>
       </c>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>Monitor liver function tests</t>
+        </is>
+      </c>
       <c r="L550" t="inlineStr">
         <is>
           <t>General blood work: Normal</t>
@@ -32360,10 +32438,8 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A554" t="n">
+        <v>6795699269</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -32398,7 +32474,11 @@
           <t>Epilepsy, Stroke</t>
         </is>
       </c>
-      <c r="I554" t="inlineStr"/>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>Uncontrolled jerking, Confusion, Numbness, Seizures</t>
+        </is>
+      </c>
       <c r="J554" t="inlineStr">
         <is>
           <t>Valproate, Aspirin</t>
@@ -32648,10 +32728,8 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A559" t="n">
+        <v>3789368816</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -32817,11 +32895,7 @@
           <t>Advise rest and hydration, Monitor platelet counts, Prescribe antibiotics</t>
         </is>
       </c>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>CRP: 40 mg/L, Platelets: 64398 cells/mm3, CRP: 31 mg/L</t>
-        </is>
-      </c>
+      <c r="L561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -32923,11 +32997,7 @@
           <t>Cough, Fatigue</t>
         </is>
       </c>
-      <c r="J563" t="inlineStr">
-        <is>
-          <t>Dexamethasone</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>Seek medical help if symptoms worsen</t>
@@ -33233,7 +33303,11 @@
       <c r="A569" t="n">
         <v>3293279139</v>
       </c>
-      <c r="B569" t="inlineStr"/>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Dev Biswas</t>
+        </is>
+      </c>
       <c r="C569" t="n">
         <v>51</v>
       </c>
@@ -33342,10 +33416,8 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A571" t="n">
+        <v>5742218163</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -33692,18 +33764,18 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="n">
-        <v>5384951213</v>
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Triya Chaudhuri</t>
         </is>
       </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C577" t="n">
+        <v>63</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -33810,8 +33882,10 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="n">
-        <v>373166997</v>
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -33876,10 +33950,8 @@
           <t>Shravya Dhawan</t>
         </is>
       </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C580" t="n">
+        <v>56</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34052,7 +34124,9 @@
           <t>Gaurav Bir</t>
         </is>
       </c>
-      <c r="C583" t="inlineStr"/>
+      <c r="C583" t="n">
+        <v>27</v>
+      </c>
       <c r="D583" t="inlineStr">
         <is>
           <t>Male</t>
@@ -34167,9 +34241,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>353.7348274388208</v>
-      </c>
-      <c r="D585" t="inlineStr"/>
+        <v>339.8411901777038</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="E585" t="inlineStr">
         <is>
           <t>H852</t>
@@ -34212,8 +34290,10 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" t="n">
-        <v>8499175955</v>
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -34271,7 +34351,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>8577052588</v>
+        <v>35307292663.96931</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -34321,11 +34401,7 @@
           <t>Recommend cough syrup, Avoid flashing lights, Monitor oxygen levels</t>
         </is>
       </c>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>CRP: 151 mg/L, CRP: 37 mg/L, EEG: Abnormal</t>
-        </is>
-      </c>
+      <c r="L587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -34447,11 +34523,7 @@
       <c r="A590" t="n">
         <v>2919712381</v>
       </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>Mohammed Vora</t>
-        </is>
-      </c>
+      <c r="B590" t="inlineStr"/>
       <c r="C590" t="n">
         <v>29</v>
       </c>
@@ -34676,7 +34748,9 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr"/>
+      <c r="A594" t="n">
+        <v>8065022029</v>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Oviya Thakur</t>
@@ -34798,10 +34872,8 @@
           <t>Yutika Sunder</t>
         </is>
       </c>
-      <c r="C596" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C596" t="n">
+        <v>78</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35012,11 +35084,7 @@
           <t>Escitalopram, Tissue plasminogen activator, Amoxicillin</t>
         </is>
       </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>Prescribe antibiotics, Encourage physical therapy, Prescribe antidepressants</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
           <t>NIHSS: 11, PHQ-9: 22, CRP: 184 mg/L</t>
@@ -35050,11 +35118,7 @@
           <t>Manda-Date Hospital</t>
         </is>
       </c>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>Bokaro</t>
-        </is>
-      </c>
+      <c r="G600" t="inlineStr"/>
       <c r="H600" t="inlineStr">
         <is>
           <t>Coronary Artery Disease</t>
@@ -35065,7 +35129,11 @@
           <t>Palpitations, Breathlessness</t>
         </is>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>Clopidogrel</t>
+        </is>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>Advise smoking cessation</t>
@@ -35081,11 +35149,7 @@
       <c r="A601" t="n">
         <v>2096473188</v>
       </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>Joshua Karpe</t>
-        </is>
-      </c>
+      <c r="B601" t="inlineStr"/>
       <c r="C601" t="n">
         <v>61</v>
       </c>
@@ -35136,9 +35200,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" t="n">
-        <v>6922009074</v>
-      </c>
+      <c r="A602" t="inlineStr"/>
       <c r="B602" t="inlineStr">
         <is>
           <t>Vrishti Uppal</t>
@@ -35255,7 +35317,11 @@
       <c r="A604" t="n">
         <v>8655320094</v>
       </c>
-      <c r="B604" t="inlineStr"/>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Harrison Peri</t>
+        </is>
+      </c>
       <c r="C604" t="n">
         <v>67</v>
       </c>
@@ -35306,9 +35372,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="n">
-        <v>7060122440</v>
-      </c>
+      <c r="A605" t="inlineStr"/>
       <c r="B605" t="inlineStr">
         <is>
           <t>Benjamin Tata</t>
@@ -35654,16 +35718,16 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" t="n">
-        <v>80448650</v>
-      </c>
+      <c r="A611" t="inlineStr"/>
       <c r="B611" t="inlineStr">
         <is>
           <t>Tamanna Mahajan</t>
         </is>
       </c>
-      <c r="C611" t="n">
-        <v>65</v>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -35944,10 +36008,8 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A616" t="n">
+        <v>5170760102</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -36007,7 +36069,11 @@
       <c r="A617" t="n">
         <v>973583949</v>
       </c>
-      <c r="B617" t="inlineStr"/>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Jhalak Viswanathan</t>
+        </is>
+      </c>
       <c r="C617" t="n">
         <v>57</v>
       </c>
@@ -36058,8 +36124,10 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" t="n">
-        <v>8020739960</v>
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -36147,11 +36215,7 @@
           <t>Jehanabad</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>Anemia, Migraine</t>
-        </is>
-      </c>
+      <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
           <t>Sensitivity to light, Shortness of breath, Weakness, Pulsing pain</t>
@@ -36162,11 +36226,7 @@
           <t>Folic acid, Rizatriptan</t>
         </is>
       </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>Prescribe iron supplements, Encourage relaxation techniques</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
           <t>CT Brain: Normal, Hemoglobin: 15 g/dL</t>
@@ -36240,8 +36300,10 @@
           <t>Lakshmi Sampath</t>
         </is>
       </c>
-      <c r="C621" t="n">
-        <v>48</v>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36357,7 +36419,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>46</v>
+        <v>301.3203832029684</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36530,9 +36592,7 @@
           <t>Kavya Mukhopadhyay</t>
         </is>
       </c>
-      <c r="C626" t="n">
-        <v>41</v>
-      </c>
+      <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
           <t>Female</t>
@@ -36573,7 +36633,11 @@
           <t>Prescribe beta blockers</t>
         </is>
       </c>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>General blood work: Normal</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -36680,11 +36744,7 @@
           <t>Escitalopram, Pramipexole, Febuxostat</t>
         </is>
       </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>Follow general medical advice, Refer to a mental health counselor, Prescribe anti-inflammatory drugs</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
           <t>Uric Acid: 8 mg/dL, PHQ-9: 18, UPDRS: 164</t>
@@ -36692,10 +36752,8 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A629" t="n">
+        <v>6251101877</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -36810,10 +36868,8 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A631" t="n">
+        <v>9844173994</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -36878,10 +36934,8 @@
           <t>Kiaan Salvi</t>
         </is>
       </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C632" t="n">
+        <v>83</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -36938,8 +36992,10 @@
           <t>Teerth Natarajan</t>
         </is>
       </c>
-      <c r="C633" t="n">
-        <v>90</v>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37054,8 +37110,10 @@
           <t>Aashi Mukherjee</t>
         </is>
       </c>
-      <c r="C635" t="n">
-        <v>66</v>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37135,11 +37193,7 @@
           <t>Bharatpur</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>Type 2 Diabetes</t>
-        </is>
-      </c>
+      <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr">
         <is>
           <t>Thirst, Blurred vision</t>
@@ -37170,8 +37224,10 @@
           <t>Falak Jayaraman</t>
         </is>
       </c>
-      <c r="C637" t="n">
-        <v>31</v>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37541,7 +37597,11 @@
           <t>Bally</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr"/>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Depression, Alzheimer's</t>
+        </is>
+      </c>
       <c r="I643" t="inlineStr">
         <is>
           <t>Mood swings, Trouble sleeping, Difficulty speaking, Sadness</t>
@@ -37622,8 +37682,10 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" t="n">
-        <v>870415738</v>
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -37638,11 +37700,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E645" t="inlineStr">
-        <is>
-          <t>H605</t>
-        </is>
-      </c>
+      <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr">
         <is>
           <t>Vohra, Sane and Chadha Hospital</t>
@@ -37978,10 +38036,8 @@
           <t>Amaira Sridhar</t>
         </is>
       </c>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C651" t="n">
+        <v>55</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38096,8 +38152,10 @@
           <t>Kavya Krishna</t>
         </is>
       </c>
-      <c r="C653" t="n">
-        <v>59</v>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38146,10 +38204,8 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A654" t="n">
+        <v>5499165301</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -38222,7 +38278,11 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E655" t="inlineStr"/>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>H494</t>
+        </is>
+      </c>
       <c r="F655" t="inlineStr">
         <is>
           <t>Kapur-Luthra Hospital</t>
@@ -38538,7 +38598,11 @@
           <t>Memantine</t>
         </is>
       </c>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>Follow general medical advice</t>
+        </is>
+      </c>
       <c r="L660" t="inlineStr">
         <is>
           <t>MMSE: 13</t>
@@ -38604,16 +38668,20 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" t="n">
-        <v>5139358008</v>
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Theodore Pal</t>
         </is>
       </c>
-      <c r="C662" t="n">
-        <v>83</v>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38720,9 +38788,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="n">
-        <v>6387058500</v>
-      </c>
+      <c r="A664" t="inlineStr"/>
       <c r="B664" t="inlineStr">
         <is>
           <t>Pratyush Jayaraman</t>
@@ -38746,11 +38812,7 @@
           <t>Sekhon LLC Hospital</t>
         </is>
       </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>Shivpuri</t>
-        </is>
-      </c>
+      <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
         <is>
           <t>Stroke, Depression</t>
@@ -38894,8 +38956,10 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" t="n">
-        <v>7192364054</v>
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
@@ -39300,18 +39364,18 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="n">
-        <v>4263844942</v>
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>Andrew Dugar</t>
         </is>
       </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C674" t="n">
+        <v>62</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39484,8 +39548,10 @@
           <t>Manan Roy</t>
         </is>
       </c>
-      <c r="C677" t="n">
-        <v>48</v>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39600,10 +39666,8 @@
           <t>Triya Rout</t>
         </is>
       </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C679" t="n">
+        <v>46</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39771,7 +39835,11 @@
       <c r="A682" t="n">
         <v>3317329771</v>
       </c>
-      <c r="B682" t="inlineStr"/>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Indira Khurana</t>
+        </is>
+      </c>
       <c r="C682" t="n">
         <v>80</v>
       </c>
@@ -40007,11 +40075,7 @@
       <c r="C686" t="n">
         <v>66</v>
       </c>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
+      <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
           <t>H583</t>
@@ -40236,10 +40300,8 @@
           <t>Thomas Char</t>
         </is>
       </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C690" t="n">
+        <v>63</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40586,8 +40648,10 @@
           <t>Jackson Nagarajan</t>
         </is>
       </c>
-      <c r="C696" t="n">
-        <v>42</v>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40805,11 +40869,7 @@
           <t>Monitor blood counts, Follow general medical advice</t>
         </is>
       </c>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>UPDRS: 171, WBC: 14905 cells/mm3</t>
-        </is>
-      </c>
+      <c r="L699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -40959,11 +41019,7 @@
           <t>Mirzapur</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>Pneumonia, Dengue Fever</t>
-        </is>
-      </c>
+      <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
           <t>Shortness of breath, Headache, Muscle pain, Fever</t>
@@ -41516,10 +41572,8 @@
           <t>Barkha Nagarajan</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C712" t="n">
+        <v>58</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41541,11 +41595,7 @@
           <t>Raiganj</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>Asthma</t>
-        </is>
-      </c>
+      <c r="H712" t="inlineStr"/>
       <c r="I712" t="inlineStr">
         <is>
           <t>Shortness of breath, Coughing</t>
@@ -41576,7 +41626,9 @@
           <t>Zayyan Lall</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr"/>
+      <c r="C713" t="n">
+        <v>49</v>
+      </c>
       <c r="D713" t="inlineStr">
         <is>
           <t>Female</t>
@@ -41682,9 +41734,7 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" t="n">
-        <v>5691729216</v>
-      </c>
+      <c r="A715" t="inlineStr"/>
       <c r="B715" t="inlineStr">
         <is>
           <t>Forum Pandey</t>
@@ -41814,11 +41864,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E717" t="inlineStr">
-        <is>
-          <t>H065</t>
-        </is>
-      </c>
+      <c r="E717" t="inlineStr"/>
       <c r="F717" t="inlineStr">
         <is>
           <t>Bala, Talwar and Anand Hospital</t>
@@ -41856,10 +41902,8 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A718" t="n">
+        <v>6589406308</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
@@ -42032,8 +42076,10 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" t="n">
-        <v>7166728096</v>
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
@@ -42265,7 +42311,7 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>47389062824.29422</v>
+        <v>1544573247</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
@@ -43084,8 +43130,10 @@
           <t>Ekani Saha</t>
         </is>
       </c>
-      <c r="C739" t="n">
-        <v>69</v>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43540,20 +43588,16 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A747" t="n">
+        <v>1930883102</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
           <t>Anvi Mann</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C747" t="n">
+        <v>34</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43842,10 +43886,8 @@
           <t>Maya Bhat</t>
         </is>
       </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C752" t="n">
+        <v>30</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -43968,7 +44010,11 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E754" t="inlineStr"/>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>H814</t>
+        </is>
+      </c>
       <c r="F754" t="inlineStr">
         <is>
           <t>Walla, Edwin and Loke Hospital</t>
@@ -44052,7 +44098,11 @@
           <t>Escitalopram, Budesonide</t>
         </is>
       </c>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>Refer to a mental health counselor, Recommend using inhalers regularly</t>
+        </is>
+      </c>
       <c r="L755" t="inlineStr">
         <is>
           <t>FEV1: 66% predicted, PHQ-9: 6</t>
@@ -44060,10 +44110,8 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A756" t="n">
+        <v>8113631479</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
@@ -44120,8 +44168,10 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" t="n">
-        <v>1235795818</v>
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
@@ -44244,8 +44294,10 @@
           <t>Urmi Bakshi</t>
         </is>
       </c>
-      <c r="C759" t="n">
-        <v>44</v>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44688,11 +44740,7 @@
           <t>Amitriptyline, Milnacipran, Alendronate</t>
         </is>
       </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>Encourage weight-bearing exercises, Prescribe pain medications, Refer to a mental health counselor</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="inlineStr">
         <is>
           <t>PHQ-9: 10, T-score: -1.3, Tender Points: 17</t>
@@ -44758,8 +44806,10 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" t="n">
-        <v>9512437899</v>
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
@@ -44832,12 +44882,12 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr">
-        <is>
-          <t>Saran, Thakur and Hayre Hospital</t>
-        </is>
-      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>H904</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr"/>
       <c r="G769" t="inlineStr">
         <is>
           <t>Bathinda</t>
@@ -44853,7 +44903,11 @@
           <t>Shortness of breath, Weakness, Impaired balance, Tremors</t>
         </is>
       </c>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="inlineStr">
+        <is>
+          <t>Levodopa, Folic acid</t>
+        </is>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>Monitor hemoglobin levels, Follow general medical advice</t>
@@ -44924,8 +44978,10 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" t="n">
-        <v>1636662165</v>
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
@@ -45678,10 +45734,8 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A784" t="n">
+        <v>8912641947</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
@@ -45912,10 +45966,8 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A788" t="n">
+        <v>8113171714</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
@@ -45923,7 +45975,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>47</v>
+        <v>368.6725612451646</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -45973,7 +46025,7 @@
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>41698024702.01854</v>
+        <v>8035278145</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
@@ -46076,11 +46128,7 @@
           <t>Budesonide, Naproxen, Glipizide</t>
         </is>
       </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>Encourage physical activity, Prescribe anti-inflammatory drugs, Recommend using inhalers regularly</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="inlineStr">
         <is>
           <t>HbA1c: 7.4%, ESR: 46 mm/hr, FEV1: 57% predicted</t>
@@ -46146,18 +46194,18 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" t="n">
-        <v>1287644136</v>
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
           <t>Qasim Salvi</t>
         </is>
       </c>
-      <c r="C792" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C792" t="n">
+        <v>50</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46214,10 +46262,8 @@
           <t>Elijah Brar</t>
         </is>
       </c>
-      <c r="C793" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C793" t="n">
+        <v>62</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46592,11 +46638,7 @@
           <t>Gout, COVID-19</t>
         </is>
       </c>
-      <c r="I799" t="inlineStr">
-        <is>
-          <t>Shortness of breath, Joint pain, Fatigue, Redness</t>
-        </is>
-      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr">
         <is>
           <t>Colchicine, Remdesivir</t>
@@ -46645,11 +46687,7 @@
           <t>Kolkata</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>Hepatitis</t>
-        </is>
-      </c>
+      <c r="H800" t="inlineStr"/>
       <c r="I800" t="inlineStr">
         <is>
           <t>Fatigue, Nausea</t>
@@ -46846,10 +46884,8 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A804" t="n">
+        <v>383817411</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
@@ -46917,16 +46953,8 @@
       <c r="C805" t="n">
         <v>71</v>
       </c>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr">
-        <is>
-          <t>H198</t>
-        </is>
-      </c>
+      <c r="D805" t="inlineStr"/>
+      <c r="E805" t="inlineStr"/>
       <c r="F805" t="inlineStr">
         <is>
           <t>Korpal Ltd Hospital</t>
@@ -46957,11 +46985,7 @@
           <t>Encourage physical activity</t>
         </is>
       </c>
-      <c r="L805" t="inlineStr">
-        <is>
-          <t>HbA1c: 8.0%</t>
-        </is>
-      </c>
+      <c r="L805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="n">
@@ -47080,7 +47104,9 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" t="inlineStr"/>
+      <c r="A808" t="n">
+        <v>6238662189</v>
+      </c>
       <c r="B808" t="inlineStr">
         <is>
           <t>Harinakshi Warrior</t>
@@ -47114,11 +47140,7 @@
           <t>Pneumonia, Migraine, Dengue Fever</t>
         </is>
       </c>
-      <c r="I808" t="inlineStr">
-        <is>
-          <t>Nausea, Sensitivity to light, Shortness of breath, Headache, Fever</t>
-        </is>
-      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr">
         <is>
           <t>Paracetamol, Rizatriptan, Amoxicillin</t>
@@ -47157,11 +47179,7 @@
           <t>H999</t>
         </is>
       </c>
-      <c r="F809" t="inlineStr">
-        <is>
-          <t>Minhas and Sons Hospital</t>
-        </is>
-      </c>
+      <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr">
         <is>
           <t>Eluru</t>
@@ -47252,8 +47270,10 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" t="n">
-        <v>7021501233</v>
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
@@ -47600,8 +47620,10 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" t="n">
-        <v>2840277709</v>
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
@@ -47646,7 +47668,11 @@
           <t>Ibuprofen, Clopidogrel</t>
         </is>
       </c>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>Prescribe blood thinners, Monitor platelet counts</t>
+        </is>
+      </c>
       <c r="L817" t="inlineStr">
         <is>
           <t>Platelets: 89043 cells/mm3, NIHSS: 41</t>
@@ -47662,8 +47688,10 @@
           <t>Lekha Sant</t>
         </is>
       </c>
-      <c r="C818" t="n">
-        <v>19</v>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -47680,11 +47708,7 @@
           <t>Chowdhury and Sons Hospital</t>
         </is>
       </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>Sambalpur</t>
-        </is>
-      </c>
+      <c r="G818" t="inlineStr"/>
       <c r="H818" t="inlineStr">
         <is>
           <t>Arthritis</t>
@@ -47821,7 +47845,11 @@
           <t>Prepare for chemotherapy, Prescribe antibiotics, Follow general medical advice</t>
         </is>
       </c>
-      <c r="L820" t="inlineStr"/>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>WBC: 10737 cells/mm3, CRP: 31 mg/L, MMSE: 7</t>
+        </is>
+      </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -47837,11 +47865,7 @@
       <c r="C821" t="n">
         <v>82</v>
       </c>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="D821" t="inlineStr"/>
       <c r="E821" t="inlineStr">
         <is>
           <t>H313</t>
@@ -47958,11 +47982,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E823" t="inlineStr">
-        <is>
-          <t>H795</t>
-        </is>
-      </c>
+      <c r="E823" t="inlineStr"/>
       <c r="F823" t="inlineStr">
         <is>
           <t>Patel LLC Hospital</t>
@@ -48066,8 +48086,10 @@
           <t>Frederick Venkataraman</t>
         </is>
       </c>
-      <c r="C825" t="n">
-        <v>78</v>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48406,8 +48428,10 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" t="n">
-        <v>8287317600</v>
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
@@ -48533,7 +48557,11 @@
       <c r="C833" t="n">
         <v>22</v>
       </c>
-      <c r="D833" t="inlineStr"/>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="E833" t="inlineStr">
         <is>
           <t>H968</t>
@@ -48643,7 +48671,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>77</v>
+        <v>353.9509129373419</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -48753,11 +48781,7 @@
       <c r="A837" t="n">
         <v>5801943867</v>
       </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Saanvi Patla</t>
-        </is>
-      </c>
+      <c r="B837" t="inlineStr"/>
       <c r="C837" t="n">
         <v>77</v>
       </c>
@@ -48808,8 +48832,10 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="n">
-        <v>7793276699</v>
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
@@ -48866,9 +48892,7 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" t="n">
-        <v>7737709426</v>
-      </c>
+      <c r="A839" t="inlineStr"/>
       <c r="B839" t="inlineStr">
         <is>
           <t>Alexander Dewan</t>
@@ -48924,16 +48948,16 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" t="inlineStr"/>
+      <c r="A840" t="n">
+        <v>7381050251</v>
+      </c>
       <c r="B840" t="inlineStr">
         <is>
           <t>Chatura Singhal</t>
         </is>
       </c>
-      <c r="C840" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C840" t="n">
+        <v>50</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -48960,7 +48984,11 @@
           <t>Bronchitis</t>
         </is>
       </c>
-      <c r="I840" t="inlineStr"/>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>Mucus production, Fatigue</t>
+        </is>
+      </c>
       <c r="J840" t="inlineStr">
         <is>
           <t>Doxycycline</t>
@@ -49057,21 +49085,13 @@
           <t>H112</t>
         </is>
       </c>
-      <c r="F842" t="inlineStr">
-        <is>
-          <t>Karnik LLC Hospital</t>
-        </is>
-      </c>
+      <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr">
         <is>
           <t>Ulhasnagar</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>Gout, Asthma</t>
-        </is>
-      </c>
+      <c r="H842" t="inlineStr"/>
       <c r="I842" t="inlineStr">
         <is>
           <t>Chest tightness, Joint pain, Redness, Coughing</t>
@@ -49155,9 +49175,15 @@
       <c r="A844" t="n">
         <v>1741418671</v>
       </c>
-      <c r="B844" t="inlineStr"/>
-      <c r="C844" t="n">
-        <v>85</v>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Gaurangi Walia</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49380,9 +49406,7 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" t="n">
-        <v>6634507148</v>
-      </c>
+      <c r="A848" t="inlineStr"/>
       <c r="B848" t="inlineStr">
         <is>
           <t>Garima Vaidya</t>
@@ -49496,10 +49520,8 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A850" t="n">
+        <v>2043092656</v>
       </c>
       <c r="B850" t="inlineStr">
         <is>
@@ -49556,70 +49578,68 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr">
+      <c r="A851" t="n">
+        <v>4174042807</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Aarav Sura</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>36</v>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>H188</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>Savant, Wason and Jhaveri Hospital</t>
+        </is>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>Surendranagar Dudhrej</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>Stroke</t>
+        </is>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>Confusion, Trouble speaking</t>
+        </is>
+      </c>
+      <c r="J851" t="inlineStr">
+        <is>
+          <t>Tissue plasminogen activator</t>
+        </is>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>Encourage physical therapy</t>
+        </is>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>NIHSS: 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
         <is>
           <t>error_value</t>
         </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Aarav Sura</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
-      </c>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr">
-        <is>
-          <t>H188</t>
-        </is>
-      </c>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>Savant, Wason and Jhaveri Hospital</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>Surendranagar Dudhrej</t>
-        </is>
-      </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>Stroke</t>
-        </is>
-      </c>
-      <c r="I851" t="inlineStr">
-        <is>
-          <t>Confusion, Trouble speaking</t>
-        </is>
-      </c>
-      <c r="J851" t="inlineStr">
-        <is>
-          <t>Tissue plasminogen activator</t>
-        </is>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>Encourage physical therapy</t>
-        </is>
-      </c>
-      <c r="L851" t="inlineStr">
-        <is>
-          <t>NIHSS: 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="n">
-        <v>8415524420</v>
       </c>
       <c r="B852" t="inlineStr">
         <is>
@@ -49727,7 +49747,11 @@
           <t>Prescribe antiviral medications, Encourage a heart-healthy diet, Encourage moderate exercise</t>
         </is>
       </c>
-      <c r="L853" t="inlineStr"/>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>BNP: 749 pg/mL, General blood work: Normal</t>
+        </is>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
@@ -49846,20 +49870,16 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A856" t="n">
+        <v>6134489264</v>
       </c>
       <c r="B856" t="inlineStr">
         <is>
           <t>Vinaya Bhalla</t>
         </is>
       </c>
-      <c r="C856" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C856" t="n">
+        <v>60</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50032,8 +50052,10 @@
           <t>Divya Peri</t>
         </is>
       </c>
-      <c r="C859" t="n">
-        <v>58</v>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50045,11 +50067,7 @@
           <t>H896</t>
         </is>
       </c>
-      <c r="F859" t="inlineStr">
-        <is>
-          <t>Dash Inc Hospital</t>
-        </is>
-      </c>
+      <c r="F859" t="inlineStr"/>
       <c r="G859" t="inlineStr">
         <is>
           <t>Madhyamgram</t>
@@ -50198,10 +50216,8 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A862" t="n">
+        <v>368434808</v>
       </c>
       <c r="B862" t="inlineStr">
         <is>
@@ -50506,7 +50522,11 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E867" t="inlineStr"/>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>H360</t>
+        </is>
+      </c>
       <c r="F867" t="inlineStr">
         <is>
           <t>Varma-Mahal Hospital</t>
@@ -50552,60 +50572,60 @@
           <t>Dhriti Chand</t>
         </is>
       </c>
-      <c r="C868" t="inlineStr">
+      <c r="C868" t="n">
+        <v>83</v>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>H350</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>Gour-Maharaj Hospital</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>Narasaraopet</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>Depression</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>Trouble sleeping, Fatigue</t>
+        </is>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>Escitalopram</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>Encourage social support</t>
+        </is>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>PHQ-9: 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
         <is>
           <t>error_value</t>
         </is>
-      </c>
-      <c r="D868" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E868" t="inlineStr">
-        <is>
-          <t>H350</t>
-        </is>
-      </c>
-      <c r="F868" t="inlineStr">
-        <is>
-          <t>Gour-Maharaj Hospital</t>
-        </is>
-      </c>
-      <c r="G868" t="inlineStr">
-        <is>
-          <t>Narasaraopet</t>
-        </is>
-      </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>Depression</t>
-        </is>
-      </c>
-      <c r="I868" t="inlineStr">
-        <is>
-          <t>Trouble sleeping, Fatigue</t>
-        </is>
-      </c>
-      <c r="J868" t="inlineStr">
-        <is>
-          <t>Escitalopram</t>
-        </is>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>Encourage social support</t>
-        </is>
-      </c>
-      <c r="L868" t="inlineStr">
-        <is>
-          <t>PHQ-9: 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="n">
-        <v>1227301873</v>
       </c>
       <c r="B869" t="inlineStr">
         <is>
@@ -50844,10 +50864,8 @@
           <t>Zashil Kaul</t>
         </is>
       </c>
-      <c r="C873" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C873" t="n">
+        <v>33</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51078,10 +51096,8 @@
           <t>Eesha Bobal</t>
         </is>
       </c>
-      <c r="C877" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C877" t="n">
+        <v>46</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51113,11 +51129,7 @@
           <t>Shortness of breath, Trouble sleeping, Fatigue, Loss of interest</t>
         </is>
       </c>
-      <c r="J877" t="inlineStr">
-        <is>
-          <t>Amitriptyline, Iron supplements</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>Refer to a mental health counselor, Recommend iron-rich foods</t>
@@ -51161,11 +51173,7 @@
           <t>Kulti</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>Hypertension, COVID-19, Liver Cirrhosis</t>
-        </is>
-      </c>
+      <c r="H878" t="inlineStr"/>
       <c r="I878" t="inlineStr">
         <is>
           <t>Jaundice, Abdominal pain, Fatigue, Chest pain, Dizziness, Fever</t>
@@ -51204,7 +51212,11 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E879" t="inlineStr"/>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>H404</t>
+        </is>
+      </c>
       <c r="F879" t="inlineStr">
         <is>
           <t>Saraf-Mammen Hospital</t>
@@ -51242,10 +51254,8 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A880" t="n">
+        <v>2496849319</v>
       </c>
       <c r="B880" t="inlineStr">
         <is>
@@ -51302,10 +51312,8 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A881" t="n">
+        <v>4946052891</v>
       </c>
       <c r="B881" t="inlineStr">
         <is>
@@ -51478,8 +51486,10 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" t="n">
-        <v>5523162539</v>
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
@@ -51536,8 +51546,10 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" t="n">
-        <v>232909946</v>
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
@@ -51652,7 +51664,9 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" t="inlineStr"/>
+      <c r="A887" t="n">
+        <v>1045217244</v>
+      </c>
       <c r="B887" t="inlineStr">
         <is>
           <t>Praneel Tiwari</t>
@@ -51824,7 +51838,9 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" t="inlineStr"/>
+      <c r="A890" t="n">
+        <v>6465598552</v>
+      </c>
       <c r="B890" t="inlineStr">
         <is>
           <t>Alexander Puri</t>
@@ -51848,7 +51864,11 @@
           <t>Gill, Bajwa and Prasad Hospital</t>
         </is>
       </c>
-      <c r="G890" t="inlineStr"/>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>Jamnagar</t>
+        </is>
+      </c>
       <c r="H890" t="inlineStr">
         <is>
           <t>Type 2 Diabetes, Stroke, Hypertension</t>
@@ -51902,11 +51922,7 @@
           <t>Iyengar, Keer and Raghavan Hospital</t>
         </is>
       </c>
-      <c r="G891" t="inlineStr">
-        <is>
-          <t>Kochi</t>
-        </is>
-      </c>
+      <c r="G891" t="inlineStr"/>
       <c r="H891" t="inlineStr">
         <is>
           <t>Leukemia</t>
@@ -51942,10 +51958,8 @@
           <t>Bishakha Mallick</t>
         </is>
       </c>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C892" t="n">
+        <v>84</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52060,10 +52074,8 @@
           <t>Aashi Dayal</t>
         </is>
       </c>
-      <c r="C894" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C894" t="n">
+        <v>57</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52105,7 +52117,11 @@
           <t>Educate on infection control</t>
         </is>
       </c>
-      <c r="L894" t="inlineStr"/>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>TB Culture: Negative</t>
+        </is>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
@@ -52202,7 +52218,11 @@
           <t>Anemia, Osteoporosis</t>
         </is>
       </c>
-      <c r="I896" t="inlineStr"/>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>Bone fractures, Weakness, Fatigue, Stooped posture</t>
+        </is>
+      </c>
       <c r="J896" t="inlineStr">
         <is>
           <t>Alendronate, Folic acid</t>
@@ -52279,7 +52299,7 @@
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>8708582740</v>
+        <v>41696250040.26628</v>
       </c>
       <c r="B898" t="inlineStr">
         <is>
@@ -52336,10 +52356,8 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A899" t="n">
+        <v>6395984779</v>
       </c>
       <c r="B899" t="inlineStr">
         <is>
@@ -52454,10 +52472,8 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A901" t="n">
+        <v>1716907055</v>
       </c>
       <c r="B901" t="inlineStr">
         <is>
@@ -52638,7 +52654,9 @@
           <t>Vansha Goyal</t>
         </is>
       </c>
-      <c r="C904" t="inlineStr"/>
+      <c r="C904" t="n">
+        <v>81</v>
+      </c>
       <c r="D904" t="inlineStr">
         <is>
           <t>Male</t>
@@ -52755,7 +52773,11 @@
       <c r="C906" t="n">
         <v>34</v>
       </c>
-      <c r="D906" t="inlineStr"/>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="E906" t="inlineStr">
         <is>
           <t>H095</t>
@@ -52922,9 +52944,7 @@
           <t>Fitan Choudhury</t>
         </is>
       </c>
-      <c r="C909" t="n">
-        <v>24</v>
-      </c>
+      <c r="C909" t="inlineStr"/>
       <c r="D909" t="inlineStr">
         <is>
           <t>Male</t>
@@ -53003,11 +53023,7 @@
           <t>Sultan Pur Majra</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>Type 2 Diabetes</t>
-        </is>
-      </c>
+      <c r="H910" t="inlineStr"/>
       <c r="I910" t="inlineStr">
         <is>
           <t>Thirst, Fatigue</t>
@@ -53033,7 +53049,11 @@
       <c r="A911" t="n">
         <v>885502507</v>
       </c>
-      <c r="B911" t="inlineStr"/>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Harsh Bassi</t>
+        </is>
+      </c>
       <c r="C911" t="n">
         <v>79</v>
       </c>
@@ -53052,7 +53072,11 @@
           <t>Zachariah Inc Hospital</t>
         </is>
       </c>
-      <c r="G911" t="inlineStr"/>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>Ahmednagar</t>
+        </is>
+      </c>
       <c r="H911" t="inlineStr">
         <is>
           <t>Pneumonia, Parkinson's Disease, Fibromyalgia</t>
@@ -53138,8 +53162,10 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="n">
-        <v>7309312016</v>
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
@@ -53159,11 +53185,7 @@
           <t>H172</t>
         </is>
       </c>
-      <c r="F913" t="inlineStr">
-        <is>
-          <t>Vasa and Sons Hospital</t>
-        </is>
-      </c>
+      <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
           <t>Imphal</t>
@@ -53199,11 +53221,13 @@
       <c r="A914" t="n">
         <v>9981941656</v>
       </c>
-      <c r="B914" t="inlineStr"/>
-      <c r="C914" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Amara Bedi</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>74</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53434,10 +53458,8 @@
           <t>Harshil Sinha</t>
         </is>
       </c>
-      <c r="C918" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="C918" t="n">
+        <v>27</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -53834,10 +53856,8 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A925" t="n">
+        <v>7875138714</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
@@ -54076,12 +54096,14 @@
           <t>Ikbal Subramanian</t>
         </is>
       </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr"/>
+      <c r="C929" t="n">
+        <v>25</v>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="E929" t="inlineStr">
         <is>
           <t>H623</t>
@@ -54249,7 +54271,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>289.7950640826136</v>
+        <v>81</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54298,8 +54320,10 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" t="n">
-        <v>1307325482</v>
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
@@ -54324,7 +54348,11 @@
           <t>Batta-Talwar Hospital</t>
         </is>
       </c>
-      <c r="G933" t="inlineStr"/>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>Dhanbad</t>
+        </is>
+      </c>
       <c r="H933" t="inlineStr">
         <is>
           <t>COVID-19, Arthritis</t>
@@ -54410,24 +54438,20 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" t="inlineStr">
+      <c r="A935" t="n">
+        <v>8420965803</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Saksham Barad</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
         <is>
           <t>error_value</t>
         </is>
       </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>Saksham Barad</t>
-        </is>
-      </c>
-      <c r="C935" t="n">
-        <v>67</v>
-      </c>
-      <c r="D935" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
           <t>H337</t>
@@ -54478,8 +54502,10 @@
           <t>Osha Savant</t>
         </is>
       </c>
-      <c r="C936" t="n">
-        <v>40</v>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -54645,7 +54671,7 @@
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>344418395</v>
+        <v>36788179743.40053</v>
       </c>
       <c r="B939" t="inlineStr">
         <is>
@@ -54675,7 +54701,11 @@
           <t>Thrissur</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr"/>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>Alzheimer's, Tuberculosis</t>
+        </is>
+      </c>
       <c r="I939" t="inlineStr">
         <is>
           <t>Mood swings, Memory loss, Night sweats, Fever</t>
@@ -54825,11 +54855,7 @@
       <c r="C942" t="n">
         <v>83</v>
       </c>
-      <c r="D942" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
+      <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
           <t>H232</t>
@@ -54880,9 +54906,7 @@
           <t>Ekaja More</t>
         </is>
       </c>
-      <c r="C943" t="n">
-        <v>383.9888751418765</v>
-      </c>
+      <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr">
         <is>
           <t>Female</t>
@@ -55162,10 +55186,8 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A948" t="n">
+        <v>8254659040</v>
       </c>
       <c r="B948" t="inlineStr">
         <is>
@@ -55222,16 +55244,20 @@
       </c>
     </row>
     <row r="949">
-      <c r="A949" t="n">
-        <v>2225889225</v>
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
           <t>Onkar Prakash</t>
         </is>
       </c>
-      <c r="C949" t="n">
-        <v>19</v>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55396,16 +55422,10 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr">
-        <is>
-          <t>Meera Srinivasan</t>
-        </is>
-      </c>
+      <c r="A952" t="n">
+        <v>315605345</v>
+      </c>
+      <c r="B952" t="inlineStr"/>
       <c r="C952" t="n">
         <v>51</v>
       </c>
@@ -55464,8 +55484,10 @@
           <t>Shivansh Ahuja</t>
         </is>
       </c>
-      <c r="C953" t="n">
-        <v>21</v>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -55497,11 +55519,7 @@
           <t>Nausea, Swelling</t>
         </is>
       </c>
-      <c r="J953" t="inlineStr">
-        <is>
-          <t>Furosemide</t>
-        </is>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>Monitor fluid intake</t>
@@ -55598,11 +55616,7 @@
           <t>Chanda, Sahota and Parekh Hospital</t>
         </is>
       </c>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>Tenali</t>
-        </is>
-      </c>
+      <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
           <t>Dengue Fever, Parkinson's Disease, Leukemia</t>
@@ -55688,8 +55702,10 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" t="n">
-        <v>9176933732</v>
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
@@ -55813,7 +55829,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>84</v>
+        <v>289.8362770897606</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -55989,7 +56005,11 @@
       <c r="C962" t="n">
         <v>43</v>
       </c>
-      <c r="D962" t="inlineStr"/>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="E962" t="inlineStr">
         <is>
           <t>H438</t>
@@ -56098,68 +56118,68 @@
           <t>Sudiksha Bail</t>
         </is>
       </c>
-      <c r="C964" t="inlineStr">
+      <c r="C964" t="n">
+        <v>47</v>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>H308</t>
+        </is>
+      </c>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>Comar, Lalla and Setty Hospital</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>Dengue Fever, Stroke, Lupus</t>
+        </is>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>Joint pain, Numbness, Rash, Headache, Weakness</t>
+        </is>
+      </c>
+      <c r="J964" t="inlineStr">
+        <is>
+          <t>Clopidogrel, Prednisone, Ibuprofen</t>
+        </is>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>Refer to a neurologist, Advise bed rest, Advise on sun protection</t>
+        </is>
+      </c>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>NIHSS: 3, ANA: Positive, Platelets: 90562 cells/mm3</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
         <is>
           <t>error_value</t>
         </is>
       </c>
-      <c r="D964" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>H308</t>
-        </is>
-      </c>
-      <c r="F964" t="inlineStr">
-        <is>
-          <t>Comar, Lalla and Setty Hospital</t>
-        </is>
-      </c>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>New Delhi</t>
-        </is>
-      </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>Dengue Fever, Stroke, Lupus</t>
-        </is>
-      </c>
-      <c r="I964" t="inlineStr">
-        <is>
-          <t>Joint pain, Numbness, Rash, Headache, Weakness</t>
-        </is>
-      </c>
-      <c r="J964" t="inlineStr">
-        <is>
-          <t>Clopidogrel, Prednisone, Ibuprofen</t>
-        </is>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>Refer to a neurologist, Advise bed rest, Advise on sun protection</t>
-        </is>
-      </c>
-      <c r="L964" t="inlineStr">
-        <is>
-          <t>NIHSS: 3, ANA: Positive, Platelets: 90562 cells/mm3</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="n">
-        <v>4908102242</v>
-      </c>
       <c r="B965" t="inlineStr">
         <is>
           <t>Tristan Tata</t>
         </is>
       </c>
       <c r="C965" t="n">
-        <v>67</v>
+        <v>278.7421634571443</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56307,7 +56327,11 @@
           <t>Sleep disturbances, Cognitive difficulties</t>
         </is>
       </c>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="inlineStr">
+        <is>
+          <t>Milnacipran</t>
+        </is>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
           <t>Refer to a rheumatologist</t>
@@ -56497,7 +56521,11 @@
       <c r="A971" t="n">
         <v>3388607430</v>
       </c>
-      <c r="B971" t="inlineStr"/>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Sara Ahuja</t>
+        </is>
+      </c>
       <c r="C971" t="n">
         <v>19</v>
       </c>
@@ -57195,7 +57223,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>48</v>
+        <v>313.5494712313861</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57360,10 +57388,8 @@
       </c>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A986" t="n">
+        <v>5218802013</v>
       </c>
       <c r="B986" t="inlineStr">
         <is>
@@ -57373,11 +57399,7 @@
       <c r="C986" t="n">
         <v>20</v>
       </c>
-      <c r="D986" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
+      <c r="D986" t="inlineStr"/>
       <c r="E986" t="inlineStr">
         <is>
           <t>H347</t>
@@ -57398,11 +57420,7 @@
           <t>Leukemia, Alzheimer's, Fibromyalgia</t>
         </is>
       </c>
-      <c r="I986" t="inlineStr">
-        <is>
-          <t>Mood swings, Cognitive difficulties, Widespread pain, Easy bruising, Memory loss, Fever</t>
-        </is>
-      </c>
+      <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr">
         <is>
           <t>Imatinib, Pregabalin, Rivastigmine</t>
@@ -57572,11 +57590,7 @@
           <t>Depression, Chronic Kidney Disease</t>
         </is>
       </c>
-      <c r="I989" t="inlineStr">
-        <is>
-          <t>Swelling, Nausea, Loss of interest, Sadness</t>
-        </is>
-      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr">
         <is>
           <t>Amitriptyline, Calcitriol</t>
@@ -57597,11 +57611,7 @@
       <c r="A990" t="n">
         <v>8261110891</v>
       </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>Balhaar Chakrabarti</t>
-        </is>
-      </c>
+      <c r="B990" t="inlineStr"/>
       <c r="C990" t="n">
         <v>51</v>
       </c>
@@ -57718,8 +57728,10 @@
           <t>Amruta Sinha</t>
         </is>
       </c>
-      <c r="C992" t="n">
-        <v>46</v>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -57822,10 +57834,8 @@
       </c>
     </row>
     <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A994" t="n">
+        <v>1313061346</v>
       </c>
       <c r="B994" t="inlineStr">
         <is>
@@ -57883,7 +57893,7 @@
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>38322492110.05359</v>
+        <v>5419626647</v>
       </c>
       <c r="B995" t="inlineStr">
         <is>
@@ -58056,16 +58066,20 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="n">
-        <v>3361148342</v>
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B998" t="inlineStr">
         <is>
           <t>Jagdish Bhakta</t>
         </is>
       </c>
-      <c r="C998" t="n">
-        <v>78</v>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58135,11 +58149,7 @@
           <t>H893</t>
         </is>
       </c>
-      <c r="F999" t="inlineStr">
-        <is>
-          <t>Sehgal, Sachdeva and Barad Hospital</t>
-        </is>
-      </c>
+      <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr">
         <is>
           <t>Serampore</t>
@@ -58172,17 +58182,15 @@
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" t="inlineStr"/>
+      <c r="A1000" t="n">
+        <v>3311994956</v>
+      </c>
       <c r="B1000" t="inlineStr">
         <is>
           <t>Udarsh Randhawa</t>
         </is>
       </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
-      </c>
+      <c r="C1000" t="inlineStr"/>
       <c r="D1000" t="inlineStr">
         <is>
           <t>Male</t>
@@ -58288,8 +58296,10 @@
       </c>
     </row>
     <row r="1002">
-      <c r="A1002" t="n">
-        <v>9563144393</v>
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
@@ -58354,8 +58364,10 @@
           <t>Timothy Gaba</t>
         </is>
       </c>
-      <c r="C1003" t="n">
-        <v>75</v>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>error_value</t>
+        </is>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -58404,10 +58416,8 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A1004" t="n">
+        <v>368434808</v>
       </c>
       <c r="B1004" t="inlineStr">
         <is>
@@ -58467,11 +58477,13 @@
       <c r="A1005" t="n">
         <v>6584467679</v>
       </c>
-      <c r="B1005" t="inlineStr"/>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Rudra Deshpande</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>18</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -58488,7 +58500,11 @@
           <t>Chakraborty-Nazareth Hospital</t>
         </is>
       </c>
-      <c r="G1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>Bhalswa Jahangir Pur</t>
+        </is>
+      </c>
       <c r="H1005" t="inlineStr">
         <is>
           <t>Stroke, Coronary Artery Disease, Heart Failure</t>
@@ -58663,11 +58679,7 @@
           <t>Mirzapur</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>Pneumonia, Dengue Fever</t>
-        </is>
-      </c>
+      <c r="H1008" t="inlineStr"/>
       <c r="I1008" t="inlineStr">
         <is>
           <t>Shortness of breath, Headache, Muscle pain, Fever</t>
@@ -58748,10 +58760,8 @@
       </c>
     </row>
     <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>error_value</t>
-        </is>
+      <c r="A1010" t="n">
+        <v>5170760102</v>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
